--- a/试卷导入模板.xlsx
+++ b/试卷导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Final\Documents\workspace\mekumiao\question\QuestionApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF6B369-3C0F-4076-8F1D-480086CC727F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF4C60A-2FDB-4D1C-8993-DEB8834F96A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7460" xr2:uid="{82F2BD56-A990-45F2-9D95-580BAB58954C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{82F2BD56-A990-45F2-9D95-580BAB58954C}"/>
   </bookViews>
   <sheets>
     <sheet name="哥哥真题" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,14 @@
   </si>
   <si>
     <t>哥哥是我吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,60 +514,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE87B7C-6DF5-4FED-8FDC-E0088ADFBA7B}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="3"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="3"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -568,60 +579,72 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
